--- a/biology/Histoire de la zoologie et de la botanique/Petr_Wolfgang_Wygodzinsky/Petr_Wolfgang_Wygodzinsky.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Petr_Wolfgang_Wygodzinsky/Petr_Wolfgang_Wygodzinsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petr Wolfgang Wygodzinsky est un entomologiste allemand, né le 5 octobre 1916 à Bonn et mort en 1987.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Willy et d’Adele née Sperling. Il obtient son doctorat à Bâle. Il travaille pour le service antipaludéen de Rio de Janeiro en 1941. Dans la même ville, de 1941 à 1948, il travaille pour l’Institut d’agriculture. De 1948 à 1954, il travaille pour l’institut de médecine de Tucumán en Argentine. De 1954 à 1958, il enseigne à l’Institut Miguel Lillo, de 1958 à 1962, à l’université de Buenos Aires. À partir de 1962, il est conservateur assistant à l’American Museum of Natural History de New York. Il est spécialiste des thysanoures, des réduves et diptères de la famille des Simuliidae.
 </t>
